--- a/biology/Botanique/Ehretia_rigida/Ehretia_rigida.xlsx
+++ b/biology/Botanique/Ehretia_rigida/Ehretia_rigida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ehretia rigida est un arbuste ou un petit arbre d’Afrique du Sud de la famille des Boraginacées.
 L’aspect rigide des pousses (en petites branches très droites) assez caractéristique a servi à nommer cette espèce.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ehretia rigida reste généralement un buisson ou un petit arbre d’une taille inférieure à 6 m mais peut atteindre parfois 9 m de haut.
 Son feuillage est caduc.
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce est présente en Afrique du Sud (Est, Botswana et Lesotho), au Zimbabwe et au Mozambique. En Namibie, la révision de 2001 du genre a reclassé les spécimens existant d’Ehretia rigida en deux espèces : ’’Ehretia alba’’ et ’’Ehretia namibiensis’’ [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce est présente en Afrique du Sud (Est, Botswana et Lesotho), au Zimbabwe et au Mozambique. En Namibie, la révision de 2001 du genre a reclassé les spécimens existant d’Ehretia rigida en deux espèces : ’’Ehretia alba’’ et ’’Ehretia namibiensis’’ .
 Elle tolère une grande variété d’habitats, principalement les plaines herbeuses.
 ↑ Barbara CURTIS et Coleen MANNHEIMER - ’’Tree atlas of Namibia’’ - ’’Ehretia alba’’ and ’’Ehretia namibiensis’’ - National Botanical Research Institute , 2005 - p. 565 à 567 Namibian Biodiversity Database
 </t>
@@ -583,7 +599,9 @@
           <t>Utilisations et intérêts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est comestible à maturité mais insipide.
 L’espèce présente un intérêt décoratif et ornemental (parfois cultivé aussi en bonsaï) outre son intérêt écologique (plante très mellifère, nourriture animale).
